--- a/LR3/table_1_8.xlsx
+++ b/LR3/table_1_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76A56757-1739-4BBD-808F-B9D5662BBC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E33892D-2941-4750-9185-66850CFD6E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$3:$B$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -187,7 +187,7 @@
     <t>Салех</t>
   </si>
   <si>
-    <t>Максим</t>
+    <t>Балашов</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
